--- a/wrds/data/CPIAUCSL.xlsx
+++ b/wrds/data/CPIAUCSL.xlsx
@@ -36,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -54,7 +54,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -1003,25 +1003,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -1031,9 +1031,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>26695</v>
+        <v>26665</v>
       </c>
       <c r="B2">
         <v>42.7</v>
@@ -1043,9 +1043,9 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>26723</v>
+        <v>26696</v>
       </c>
       <c r="B3">
         <v>43</v>
@@ -1055,9 +1055,9 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>26754</v>
+        <v>26724</v>
       </c>
       <c r="B4">
         <v>43.4</v>
@@ -1067,9 +1067,9 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>26784</v>
+        <v>26755</v>
       </c>
       <c r="B5">
         <v>43.7</v>
@@ -1079,9 +1079,9 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>26815</v>
+        <v>26785</v>
       </c>
       <c r="B6">
         <v>43.9</v>
@@ -1091,9 +1091,9 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>26845</v>
+        <v>26816</v>
       </c>
       <c r="B7">
         <v>44.2</v>
@@ -1103,9 +1103,9 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>26876</v>
+        <v>26846</v>
       </c>
       <c r="B8">
         <v>44.2</v>
@@ -1115,9 +1115,9 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>26907</v>
+        <v>26877</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -1127,9 +1127,9 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>26937</v>
+        <v>26908</v>
       </c>
       <c r="B10">
         <v>45.2</v>
@@ -1139,9 +1139,9 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>26968</v>
+        <v>26938</v>
       </c>
       <c r="B11">
         <v>45.6</v>
@@ -1151,9 +1151,9 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>26998</v>
+        <v>26969</v>
       </c>
       <c r="B12">
         <v>45.9</v>
@@ -1163,9 +1163,9 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>27029</v>
+        <v>26999</v>
       </c>
       <c r="B13">
         <v>46.3</v>
@@ -1174,9 +1174,9 @@
         <v>0.21901815532786498</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>27060</v>
+        <v>27030</v>
       </c>
       <c r="B14">
         <v>46.8</v>
@@ -1185,9 +1185,9 @@
         <v>0.22057368009275405</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>27088</v>
+        <v>27061</v>
       </c>
       <c r="B15">
         <v>47.3</v>
@@ -1196,9 +1196,9 @@
         <v>0.22239252986783392</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>27119</v>
+        <v>27089</v>
       </c>
       <c r="B16">
         <v>47.8</v>
@@ -1207,9 +1207,9 @@
         <v>0.22394213110453129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>27149</v>
+        <v>27120</v>
       </c>
       <c r="B17">
         <v>48.1</v>
@@ -1218,9 +1218,9 @@
         <v>0.22482728963924803</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>27180</v>
+        <v>27150</v>
       </c>
       <c r="B18">
         <v>48.6</v>
@@ -1229,9 +1229,9 @@
         <v>0.22582803613248578</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>27210</v>
+        <v>27181</v>
       </c>
       <c r="B19">
         <v>49</v>
@@ -1240,9 +1240,9 @@
         <v>0.2253256875882334</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>27241</v>
+        <v>27211</v>
       </c>
       <c r="B20">
         <v>49.3</v>
@@ -1251,9 +1251,9 @@
         <v>0.22509770975636484</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>27272</v>
+        <v>27242</v>
       </c>
       <c r="B21">
         <v>49.9</v>
@@ -1262,9 +1262,9 @@
         <v>0.22817687137043302</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>27302</v>
+        <v>27273</v>
       </c>
       <c r="B22">
         <v>50.6</v>
@@ -1273,9 +1273,9 @@
         <v>0.23118006917126971</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>27333</v>
+        <v>27303</v>
       </c>
       <c r="B23">
         <v>51</v>
@@ -1284,9 +1284,9 @@
         <v>0.23502845687688656</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>27363</v>
+        <v>27334</v>
       </c>
       <c r="B24">
         <v>51.5</v>
@@ -1295,9 +1295,9 @@
         <v>0.24161048636425481</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>27394</v>
+        <v>27364</v>
       </c>
       <c r="B25">
         <v>51.9</v>
@@ -1306,9 +1306,9 @@
         <v>0.24550847217097607</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>27425</v>
+        <v>27395</v>
       </c>
       <c r="B26">
         <v>52.3</v>
@@ -1317,9 +1317,9 @@
         <v>0.24649580061647514</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>27453</v>
+        <v>27426</v>
       </c>
       <c r="B27">
         <v>52.6</v>
@@ -1328,9 +1328,9 @@
         <v>0.24731177740059335</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>27484</v>
+        <v>27454</v>
       </c>
       <c r="B28">
         <v>52.8</v>
@@ -1339,9 +1339,9 @@
         <v>0.24736704021588393</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>27514</v>
+        <v>27485</v>
       </c>
       <c r="B29">
         <v>53</v>
@@ -1350,9 +1350,9 @@
         <v>0.24773069336549158</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>27545</v>
+        <v>27515</v>
       </c>
       <c r="B30">
         <v>53.1</v>
@@ -1361,9 +1361,9 @@
         <v>0.24673803947808631</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>27575</v>
+        <v>27546</v>
       </c>
       <c r="B31">
         <v>53.5</v>
@@ -1372,9 +1372,9 @@
         <v>0.24601886297898953</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>27606</v>
+        <v>27576</v>
       </c>
       <c r="B32">
         <v>54</v>
@@ -1383,9 +1383,9 @@
         <v>0.24655732914490266</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>27637</v>
+        <v>27607</v>
       </c>
       <c r="B33">
         <v>54.2</v>
@@ -1394,9 +1394,9 @@
         <v>0.24783940738031005</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>27667</v>
+        <v>27638</v>
       </c>
       <c r="B34">
         <v>54.6</v>
@@ -1405,9 +1405,9 @@
         <v>0.24945517345358351</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>27698</v>
+        <v>27668</v>
       </c>
       <c r="B35">
         <v>54.9</v>
@@ -1416,9 +1416,9 @@
         <v>0.25300122122629554</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>27728</v>
+        <v>27699</v>
       </c>
       <c r="B36">
         <v>55.3</v>
@@ -1427,9 +1427,9 @@
         <v>0.25943805623190852</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>27759</v>
+        <v>27729</v>
       </c>
       <c r="B37">
         <v>55.6</v>
@@ -1438,9 +1438,9 @@
         <v>0.26301100294231733</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>27790</v>
+        <v>27760</v>
       </c>
       <c r="B38">
         <v>55.8</v>
@@ -1449,9 +1449,9 @@
         <v>0.26299169549520673</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>27819</v>
+        <v>27791</v>
       </c>
       <c r="B39">
         <v>55.9</v>
@@ -1460,9 +1460,9 @@
         <v>0.26282753529834918</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>27850</v>
+        <v>27820</v>
       </c>
       <c r="B40">
         <v>56</v>
@@ -1471,9 +1471,9 @@
         <v>0.26235898204714964</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>27880</v>
+        <v>27851</v>
       </c>
       <c r="B41">
         <v>56.1</v>
@@ -1482,9 +1482,9 @@
         <v>0.26222060184535995</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>27911</v>
+        <v>27881</v>
       </c>
       <c r="B42">
         <v>56.4</v>
@@ -1493,9 +1493,9 @@
         <v>0.26207204193152672</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>27941</v>
+        <v>27912</v>
       </c>
       <c r="B43">
         <v>56.7</v>
@@ -1504,9 +1504,9 @@
         <v>0.26073400992352724</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>27972</v>
+        <v>27942</v>
       </c>
       <c r="B44">
         <v>57</v>
@@ -1515,9 +1515,9 @@
         <v>0.26025495854184172</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>28003</v>
+        <v>27973</v>
       </c>
       <c r="B45">
         <v>57.3</v>
@@ -1526,9 +1526,9 @@
         <v>0.26201472403859344</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>28033</v>
+        <v>28004</v>
       </c>
       <c r="B46">
         <v>57.6</v>
@@ -1537,9 +1537,9 @@
         <v>0.26316150166531888</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>28064</v>
+        <v>28034</v>
       </c>
       <c r="B47">
         <v>57.9</v>
@@ -1548,9 +1548,9 @@
         <v>0.26682642457199474</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>28094</v>
+        <v>28065</v>
       </c>
       <c r="B48">
         <v>58.1</v>
@@ -1559,9 +1559,9 @@
         <v>0.27257416034491661</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>28125</v>
+        <v>28095</v>
       </c>
       <c r="B49">
         <v>58.4</v>
@@ -1570,9 +1570,9 @@
         <v>0.27625616136387288</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>28156</v>
+        <v>28126</v>
       </c>
       <c r="B50">
         <v>58.7</v>
@@ -1581,9 +1581,9 @@
         <v>0.27665972268044153</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>28184</v>
+        <v>28157</v>
       </c>
       <c r="B51">
         <v>59.3</v>
@@ -1592,9 +1592,9 @@
         <v>0.2788134676778552</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>28215</v>
+        <v>28185</v>
       </c>
       <c r="B52">
         <v>59.6</v>
@@ -1603,9 +1603,9 @@
         <v>0.27922491660732357</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>28245</v>
+        <v>28216</v>
       </c>
       <c r="B53">
         <v>60</v>
@@ -1614,9 +1614,9 @@
         <v>0.28044984154583952</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>28276</v>
+        <v>28246</v>
       </c>
       <c r="B54">
         <v>60.2</v>
@@ -1625,9 +1625,9 @@
         <v>0.27972937809003384</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>28306</v>
+        <v>28277</v>
       </c>
       <c r="B55">
         <v>60.5</v>
@@ -1636,9 +1636,9 @@
         <v>0.27820824692016571</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>28337</v>
+        <v>28307</v>
       </c>
       <c r="B56">
         <v>60.8</v>
@@ -1647,9 +1647,9 @@
         <v>0.27760528911129778</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>28368</v>
+        <v>28338</v>
       </c>
       <c r="B57">
         <v>61.1</v>
@@ -1658,9 +1658,9 @@
         <v>0.27939091865197313</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>28398</v>
+        <v>28369</v>
       </c>
       <c r="B58">
         <v>61.3</v>
@@ -1669,9 +1669,9 @@
         <v>0.28006597312645914</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>28429</v>
+        <v>28399</v>
       </c>
       <c r="B59">
         <v>61.6</v>
@@ -1680,9 +1680,9 @@
         <v>0.28387750869835709</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>28459</v>
+        <v>28430</v>
       </c>
       <c r="B60">
         <v>62</v>
@@ -1691,9 +1691,9 @@
         <v>0.29087087678803492</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>28490</v>
+        <v>28460</v>
       </c>
       <c r="B61">
         <v>62.3</v>
@@ -1702,9 +1702,9 @@
         <v>0.29470477487961094</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>28521</v>
+        <v>28491</v>
       </c>
       <c r="B62">
         <v>62.7</v>
@@ -1713,9 +1713,9 @@
         <v>0.29551217397042051</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>28549</v>
+        <v>28522</v>
       </c>
       <c r="B63">
         <v>63</v>
@@ -1724,9 +1724,9 @@
         <v>0.29620992350261183</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>28580</v>
+        <v>28550</v>
       </c>
       <c r="B64">
         <v>63.4</v>
@@ -1735,9 +1735,9 @@
         <v>0.29702784753195155</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>28610</v>
+        <v>28581</v>
       </c>
       <c r="B65">
         <v>63.9</v>
@@ -1746,9 +1746,9 @@
         <v>0.29867908124631909</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>28641</v>
+        <v>28611</v>
       </c>
       <c r="B66">
         <v>64.5</v>
@@ -1757,9 +1757,9 @@
         <v>0.29971004795360767</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>28671</v>
+        <v>28642</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -1768,9 +1768,9 @@
         <v>0.29890142231092187</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>28702</v>
+        <v>28672</v>
       </c>
       <c r="B68">
         <v>65.5</v>
@@ -1779,9 +1779,9 @@
         <v>0.29906490849983564</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>28733</v>
+        <v>28703</v>
       </c>
       <c r="B69">
         <v>65.900000000000006</v>
@@ -1790,9 +1790,9 @@
         <v>0.30133979605834749</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>28763</v>
+        <v>28734</v>
       </c>
       <c r="B70">
         <v>66.5</v>
@@ -1801,9 +1801,9 @@
         <v>0.30382360869346708</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>28794</v>
+        <v>28764</v>
       </c>
       <c r="B71">
         <v>67.099999999999994</v>
@@ -1812,9 +1812,9 @@
         <v>0.30922371483213895</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>28824</v>
+        <v>28795</v>
       </c>
       <c r="B72">
         <v>67.5</v>
@@ -1823,9 +1823,9 @@
         <v>0.31667393843858638</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>28855</v>
+        <v>28825</v>
       </c>
       <c r="B73">
         <v>67.900000000000006</v>
@@ -1834,9 +1834,9 @@
         <v>0.32119509172272209</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>28886</v>
+        <v>28856</v>
       </c>
       <c r="B74">
         <v>68.5</v>
@@ -1845,9 +1845,9 @@
         <v>0.32284822834089</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>28914</v>
+        <v>28887</v>
       </c>
       <c r="B75">
         <v>69.2</v>
@@ -1856,9 +1856,9 @@
         <v>0.32536074137112281</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>28945</v>
+        <v>28915</v>
       </c>
       <c r="B76">
         <v>69.900000000000006</v>
@@ -1867,9 +1867,9 @@
         <v>0.32748022937671001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>28975</v>
+        <v>28946</v>
       </c>
       <c r="B77">
         <v>70.599999999999994</v>
@@ -1878,9 +1878,9 @@
         <v>0.32999598021893778</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>29006</v>
+        <v>28976</v>
       </c>
       <c r="B78">
         <v>71.400000000000006</v>
@@ -1889,9 +1889,9 @@
         <v>0.33177205308352853</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>29036</v>
+        <v>29007</v>
       </c>
       <c r="B79">
         <v>72.2</v>
@@ -1900,9 +1900,9 @@
         <v>0.33201050293613171</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>29067</v>
+        <v>29037</v>
       </c>
       <c r="B80">
         <v>73</v>
@@ -1911,9 +1911,9 @@
         <v>0.33330898199218323</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>29098</v>
+        <v>29068</v>
       </c>
       <c r="B81">
         <v>73.7</v>
@@ -1922,9 +1922,9 @@
         <v>0.33700672184370573</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>29128</v>
+        <v>29099</v>
       </c>
       <c r="B82">
         <v>74.400000000000006</v>
@@ -1933,9 +1933,9 @@
         <v>0.33991693965103692</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>29159</v>
+        <v>29129</v>
       </c>
       <c r="B83">
         <v>75.2</v>
@@ -1944,9 +1944,9 @@
         <v>0.34655176386552689</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>29189</v>
+        <v>29160</v>
       </c>
       <c r="B84">
         <v>76</v>
@@ -1955,9 +1955,9 @@
         <v>0.35655139735307506</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>29220</v>
+        <v>29190</v>
       </c>
       <c r="B85">
         <v>76.900000000000006</v>
@@ -1966,9 +1966,9 @@
         <v>0.36376881522057924</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>29251</v>
+        <v>29221</v>
       </c>
       <c r="B86">
         <v>78</v>
@@ -1977,9 +1977,9 @@
         <v>0.36762280015459009</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>29280</v>
+        <v>29252</v>
       </c>
       <c r="B87">
         <v>79</v>
@@ -1988,9 +1988,9 @@
         <v>0.37143784058264018</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>29311</v>
+        <v>29281</v>
       </c>
       <c r="B88">
         <v>80.099999999999994</v>
@@ -1999,9 +1999,9 @@
         <v>0.3752670439638694</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>29341</v>
+        <v>29312</v>
       </c>
       <c r="B89">
         <v>80.900000000000006</v>
@@ -2010,9 +2010,9 @@
         <v>0.37813986968430696</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>29372</v>
+        <v>29342</v>
       </c>
       <c r="B90">
         <v>81.7</v>
@@ -2021,9 +2021,9 @@
         <v>0.37963272740790305</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>29402</v>
+        <v>29373</v>
       </c>
       <c r="B91">
         <v>82.5</v>
@@ -2032,9 +2032,9 @@
         <v>0.37937488216386239</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>29433</v>
+        <v>29403</v>
       </c>
       <c r="B92">
         <v>82.6</v>
@@ -2043,9 +2043,9 @@
         <v>0.37714139606238811</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>29464</v>
+        <v>29434</v>
       </c>
       <c r="B93">
         <v>83.2</v>
@@ -2054,9 +2054,9 @@
         <v>0.3804472083771549</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>29494</v>
+        <v>29465</v>
       </c>
       <c r="B94">
         <v>83.9</v>
@@ -2065,9 +2065,9 @@
         <v>0.38332031232153219</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>29525</v>
+        <v>29495</v>
       </c>
       <c r="B95">
         <v>84.7</v>
@@ -2076,9 +2076,9 @@
         <v>0.39033157446024103</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>29555</v>
+        <v>29526</v>
       </c>
       <c r="B96">
         <v>85.6</v>
@@ -2087,9 +2087,9 @@
         <v>0.40158946859767397</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>29586</v>
+        <v>29556</v>
       </c>
       <c r="B97">
         <v>86.4</v>
@@ -2098,9 +2098,9 @@
         <v>0.40870774557942841</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>29617</v>
+        <v>29587</v>
       </c>
       <c r="B98">
         <v>87.2</v>
@@ -2109,9 +2109,9 @@
         <v>0.41098343812154176</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>29645</v>
+        <v>29618</v>
       </c>
       <c r="B99">
         <v>88</v>
@@ -2120,9 +2120,9 @@
         <v>0.41375354394015618</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>29676</v>
+        <v>29646</v>
       </c>
       <c r="B100">
         <v>88.6</v>
@@ -2131,9 +2131,9 @@
         <v>0.41508938945316887</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>29706</v>
+        <v>29677</v>
       </c>
       <c r="B101">
         <v>89.1</v>
@@ -2142,9 +2142,9 @@
         <v>0.41646801469557165</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>29737</v>
+        <v>29707</v>
       </c>
       <c r="B102">
         <v>89.7</v>
@@ -2153,9 +2153,9 @@
         <v>0.41680606668897069</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>29767</v>
+        <v>29738</v>
       </c>
       <c r="B103">
         <v>90.5</v>
@@ -2164,9 +2164,9 @@
         <v>0.4161627495252066</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>29798</v>
+        <v>29768</v>
       </c>
       <c r="B104">
         <v>91.5</v>
@@ -2175,9 +2175,9 @@
         <v>0.4177776966066406</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>29829</v>
+        <v>29799</v>
       </c>
       <c r="B105">
         <v>92.2</v>
@@ -2186,9 +2186,9 @@
         <v>0.42160135351410677</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>29859</v>
+        <v>29830</v>
       </c>
       <c r="B106">
         <v>93.1</v>
@@ -2197,9 +2197,9 @@
         <v>0.4253530521708539</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>29890</v>
+        <v>29860</v>
       </c>
       <c r="B107">
         <v>93.4</v>
@@ -2208,9 +2208,9 @@
         <v>0.43042466416276876</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>29920</v>
+        <v>29891</v>
       </c>
       <c r="B108">
         <v>93.8</v>
@@ -2219,9 +2219,9 @@
         <v>0.44005948778576892</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>29951</v>
+        <v>29921</v>
       </c>
       <c r="B109">
         <v>94.1</v>
@@ -2230,9 +2230,9 @@
         <v>0.44513193123870609</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>29982</v>
+        <v>29952</v>
       </c>
       <c r="B110">
         <v>94.4</v>
@@ -2241,9 +2241,9 @@
         <v>0.4449178504435039</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>30010</v>
+        <v>29983</v>
       </c>
       <c r="B111">
         <v>94.7</v>
@@ -2252,9 +2252,9 @@
         <v>0.44525523421741808</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>30041</v>
+        <v>30011</v>
       </c>
       <c r="B112">
         <v>94.7</v>
@@ -2263,9 +2263,9 @@
         <v>0.44366777856901912</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>30071</v>
+        <v>30042</v>
       </c>
       <c r="B113">
         <v>95</v>
@@ -2274,9 +2274,9 @@
         <v>0.44404558244757925</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>30102</v>
+        <v>30072</v>
       </c>
       <c r="B114">
         <v>95.9</v>
@@ -2285,9 +2285,9 @@
         <v>0.44561540463179811</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>30132</v>
+        <v>30103</v>
       </c>
       <c r="B115">
         <v>97</v>
@@ -2296,9 +2296,9 @@
         <v>0.44605289175629881</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>30163</v>
+        <v>30133</v>
       </c>
       <c r="B116">
         <v>97.5</v>
@@ -2307,9 +2307,9 @@
         <v>0.44517295540051871</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>30194</v>
+        <v>30164</v>
       </c>
       <c r="B117">
         <v>97.7</v>
@@ -2318,9 +2318,9 @@
         <v>0.44675110887557734</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>30224</v>
+        <v>30195</v>
       </c>
       <c r="B118">
         <v>97.7</v>
@@ -2329,9 +2329,9 @@
         <v>0.44636942209551483</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>30255</v>
+        <v>30225</v>
       </c>
       <c r="B119">
         <v>98.1</v>
@@ -2340,9 +2340,9 @@
         <v>0.45208414940436414</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>30285</v>
+        <v>30256</v>
       </c>
       <c r="B120">
         <v>98</v>
@@ -2351,9 +2351,9 @@
         <v>0.45976364395528097</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>30316</v>
+        <v>30286</v>
       </c>
       <c r="B121">
         <v>97.7</v>
@@ -2362,9 +2362,9 @@
         <v>0.46216142063784899</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>30347</v>
+        <v>30317</v>
       </c>
       <c r="B122">
         <v>97.9</v>
@@ -2373,9 +2373,9 @@
         <v>0.46141374532223556</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>30375</v>
+        <v>30348</v>
       </c>
       <c r="B123">
         <v>98</v>
@@ -2384,9 +2384,9 @@
         <v>0.46077099211517392</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>30406</v>
+        <v>30376</v>
       </c>
       <c r="B124">
         <v>98.1</v>
@@ -2395,9 +2395,9 @@
         <v>0.4595967167647389</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>30436</v>
+        <v>30407</v>
       </c>
       <c r="B125">
         <v>98.8</v>
@@ -2406,9 +2406,9 @@
         <v>0.4618074057454824</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>30467</v>
+        <v>30437</v>
       </c>
       <c r="B126">
         <v>99.2</v>
@@ -2417,9 +2417,9 @@
         <v>0.46094940708523846</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>30497</v>
+        <v>30468</v>
       </c>
       <c r="B127">
         <v>99.4</v>
@@ -2428,9 +2428,9 @@
         <v>0.45708925196470207</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>30528</v>
+        <v>30498</v>
       </c>
       <c r="B128">
         <v>99.8</v>
@@ -2439,9 +2439,9 @@
         <v>0.45567447127150529</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>30559</v>
+        <v>30529</v>
       </c>
       <c r="B129">
         <v>100.1</v>
@@ -2450,9 +2450,9 @@
         <v>0.45772554757876444</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>30589</v>
+        <v>30560</v>
       </c>
       <c r="B130">
         <v>100.4</v>
@@ -2461,9 +2461,9 @@
         <v>0.45870511748607667</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>30620</v>
+        <v>30590</v>
       </c>
       <c r="B131">
         <v>100.8</v>
@@ -2472,9 +2472,9 @@
         <v>0.46452683241549342</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>30650</v>
+        <v>30621</v>
       </c>
       <c r="B132">
         <v>101.1</v>
@@ -2483,9 +2483,9 @@
         <v>0.47430718779468267</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>30681</v>
+        <v>30651</v>
       </c>
       <c r="B133">
         <v>101.4</v>
@@ -2494,9 +2494,9 @@
         <v>0.47966395140919027</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>30712</v>
+        <v>30682</v>
       </c>
       <c r="B134">
         <v>102.1</v>
@@ -2505,9 +2505,9 @@
         <v>0.48120881917671343</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>30741</v>
+        <v>30713</v>
       </c>
       <c r="B135">
         <v>102.6</v>
@@ -2516,9 +2516,9 @@
         <v>0.48239901827568205</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>30772</v>
+        <v>30742</v>
       </c>
       <c r="B136">
         <v>102.9</v>
@@ -2527,9 +2527,9 @@
         <v>0.4820846295116375</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>30802</v>
+        <v>30773</v>
       </c>
       <c r="B137">
         <v>103.3</v>
@@ -2538,9 +2538,9 @@
         <v>0.48284114386142035</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>30833</v>
+        <v>30803</v>
       </c>
       <c r="B138">
         <v>103.5</v>
@@ -2549,9 +2549,9 @@
         <v>0.48093007694881229</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>30863</v>
+        <v>30834</v>
       </c>
       <c r="B139">
         <v>103.7</v>
@@ -2560,9 +2560,9 @@
         <v>0.4768627306714246</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>30894</v>
+        <v>30864</v>
       </c>
       <c r="B140">
         <v>104.1</v>
@@ -2571,9 +2571,9 @@
         <v>0.47530774007378457</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>30925</v>
+        <v>30895</v>
       </c>
       <c r="B141">
         <v>104.4</v>
@@ -2582,9 +2582,9 @@
         <v>0.47738808358864149</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>30955</v>
+        <v>30926</v>
       </c>
       <c r="B142">
         <v>104.7</v>
@@ -2593,9 +2593,9 @@
         <v>0.478350854589564</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>30986</v>
+        <v>30956</v>
       </c>
       <c r="B143">
         <v>105.1</v>
@@ -2604,9 +2604,9 @@
         <v>0.48434295721099563</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>31016</v>
+        <v>30987</v>
       </c>
       <c r="B144">
         <v>105.3</v>
@@ -2615,9 +2615,9 @@
         <v>0.49401134396419472</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>31047</v>
+        <v>31017</v>
       </c>
       <c r="B145">
         <v>105.5</v>
@@ -2626,9 +2626,9 @@
         <v>0.49905864766932517</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>31078</v>
+        <v>31048</v>
       </c>
       <c r="B146">
         <v>105.7</v>
@@ -2637,9 +2637,9 @@
         <v>0.49817602533769451</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>31106</v>
+        <v>31079</v>
       </c>
       <c r="B147">
         <v>106.3</v>
@@ -2648,9 +2648,9 @@
         <v>0.49979547410043862</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>31137</v>
+        <v>31107</v>
       </c>
       <c r="B148">
         <v>106.8</v>
@@ -2659,9 +2659,9 @@
         <v>0.50035605861849253</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>31167</v>
+        <v>31138</v>
       </c>
       <c r="B149">
         <v>107</v>
@@ -2670,9 +2670,9 @@
         <v>0.50013555075674709</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>31198</v>
+        <v>31168</v>
       </c>
       <c r="B150">
         <v>107.2</v>
@@ -2681,9 +2681,9 @@
         <v>0.4981227463663061</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>31228</v>
+        <v>31199</v>
       </c>
       <c r="B151">
         <v>107.5</v>
@@ -2692,9 +2692,9 @@
         <v>0.49433696766806307</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>31259</v>
+        <v>31229</v>
       </c>
       <c r="B152">
         <v>107.7</v>
@@ -2703,9 +2703,9 @@
         <v>0.49174489535011146</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>31290</v>
+        <v>31260</v>
       </c>
       <c r="B153">
         <v>107.9</v>
@@ -2714,9 +2714,9 @@
         <v>0.49339247336412279</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>31320</v>
+        <v>31291</v>
       </c>
       <c r="B154">
         <v>108.1</v>
@@ -2725,9 +2725,9 @@
         <v>0.49388469322953071</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>31351</v>
+        <v>31321</v>
       </c>
       <c r="B155">
         <v>108.5</v>
@@ -2736,9 +2736,9 @@
         <v>0.50001152100278812</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>31381</v>
+        <v>31352</v>
       </c>
       <c r="B156">
         <v>109</v>
@@ -2747,9 +2747,9 @@
         <v>0.51136976725638394</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>31412</v>
+        <v>31382</v>
       </c>
       <c r="B157">
         <v>109.5</v>
@@ -2758,9 +2758,9 @@
         <v>0.51798030255726168</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>31443</v>
+        <v>31413</v>
       </c>
       <c r="B158">
         <v>109.9</v>
@@ -2769,9 +2769,9 @@
         <v>0.51797109919217244</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>31471</v>
+        <v>31444</v>
       </c>
       <c r="B159">
         <v>109.7</v>
@@ -2780,9 +2780,9 @@
         <v>0.51578140647994464</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>31502</v>
+        <v>31472</v>
       </c>
       <c r="B160">
         <v>109.1</v>
@@ -2791,9 +2791,9 @@
         <v>0.51113151680971469</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>31532</v>
+        <v>31503</v>
       </c>
       <c r="B161">
         <v>108.7</v>
@@ -2802,9 +2802,9 @@
         <v>0.50808162960054593</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>31563</v>
+        <v>31533</v>
       </c>
       <c r="B162">
         <v>109</v>
@@ -2813,9 +2813,9 @@
         <v>0.50648674770454627</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>31593</v>
+        <v>31564</v>
       </c>
       <c r="B163">
         <v>109.4</v>
@@ -2824,9 +2824,9 @@
         <v>0.50307408616638238</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>31624</v>
+        <v>31594</v>
       </c>
       <c r="B164">
         <v>109.5</v>
@@ -2835,9 +2835,9 @@
         <v>0.49996347298827487</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>31655</v>
+        <v>31625</v>
       </c>
       <c r="B165">
         <v>109.6</v>
@@ -2846,9 +2846,9 @@
         <v>0.50116603411221361</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>31685</v>
+        <v>31656</v>
       </c>
       <c r="B166">
         <v>110</v>
@@ -2857,9 +2857,9 @@
         <v>0.50256536776362981</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>31716</v>
+        <v>31686</v>
       </c>
       <c r="B167">
         <v>110.2</v>
@@ -2868,9 +2868,9 @@
         <v>0.50784580289868431</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>31746</v>
+        <v>31717</v>
       </c>
       <c r="B168">
         <v>110.4</v>
@@ -2879,9 +2879,9 @@
         <v>0.51793781931288796</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>31777</v>
+        <v>31747</v>
       </c>
       <c r="B169">
         <v>110.8</v>
@@ -2890,9 +2890,9 @@
         <v>0.52412984039584098</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>31808</v>
+        <v>31778</v>
       </c>
       <c r="B170">
         <v>111.4</v>
@@ -2901,9 +2901,9 @@
         <v>0.52504076842591463</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>31836</v>
+        <v>31809</v>
       </c>
       <c r="B171">
         <v>111.8</v>
@@ -2912,9 +2912,9 @@
         <v>0.52565507059669836</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>31867</v>
+        <v>31837</v>
       </c>
       <c r="B172">
         <v>112.2</v>
@@ -2923,9 +2923,9 @@
         <v>0.52565496045875337</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>31897</v>
+        <v>31868</v>
       </c>
       <c r="B173">
         <v>112.7</v>
@@ -2934,9 +2934,9 @@
         <v>0.52677828570360186</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>31928</v>
+        <v>31898</v>
       </c>
       <c r="B174">
         <v>113</v>
@@ -2945,9 +2945,9 @@
         <v>0.52507341734508006</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>31958</v>
+        <v>31929</v>
       </c>
       <c r="B175">
         <v>113.5</v>
@@ -2956,9 +2956,9 @@
         <v>0.52192786818907122</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>31989</v>
+        <v>31959</v>
       </c>
       <c r="B176">
         <v>113.8</v>
@@ -2967,9 +2967,9 @@
         <v>0.51959674179055415</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>32020</v>
+        <v>31990</v>
       </c>
       <c r="B177">
         <v>114.3</v>
@@ -2978,9 +2978,9 @@
         <v>0.52265764323928843</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>32050</v>
+        <v>32021</v>
       </c>
       <c r="B178">
         <v>114.7</v>
@@ -2989,9 +2989,9 @@
         <v>0.52403861529534856</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>32081</v>
+        <v>32051</v>
       </c>
       <c r="B179">
         <v>115</v>
@@ -3000,9 +3000,9 @@
         <v>0.529966128251803</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>32111</v>
+        <v>32082</v>
       </c>
       <c r="B180">
         <v>115.4</v>
@@ -3011,9 +3011,9 @@
         <v>0.54139514808611655</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>32142</v>
+        <v>32112</v>
       </c>
       <c r="B181">
         <v>115.6</v>
@@ -3022,9 +3022,9 @@
         <v>0.54683582626136484</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>32173</v>
+        <v>32143</v>
       </c>
       <c r="B182">
         <v>116</v>
@@ -3033,9 +3033,9 @@
         <v>0.5467210874093904</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>32202</v>
+        <v>32174</v>
       </c>
       <c r="B183">
         <v>116.2</v>
@@ -3044,9 +3044,9 @@
         <v>0.54634274779370617</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>32233</v>
+        <v>32203</v>
       </c>
       <c r="B184">
         <v>116.5</v>
@@ -3055,9 +3055,9 @@
         <v>0.54580038229451666</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>32263</v>
+        <v>32234</v>
       </c>
       <c r="B185">
         <v>117.2</v>
@@ -3066,9 +3066,9 @@
         <v>0.54781202381953986</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>32294</v>
+        <v>32264</v>
       </c>
       <c r="B186">
         <v>117.5</v>
@@ -3077,9 +3077,9 @@
         <v>0.54598342069068062</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>32324</v>
+        <v>32295</v>
       </c>
       <c r="B187">
         <v>118</v>
@@ -3088,9 +3088,9 @@
         <v>0.54262104357982743</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>32355</v>
+        <v>32325</v>
       </c>
       <c r="B188">
         <v>118.5</v>
@@ -3099,9 +3099,9 @@
         <v>0.54105636117909195</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>32386</v>
+        <v>32356</v>
       </c>
       <c r="B189">
         <v>119</v>
@@ -3110,9 +3110,9 @@
         <v>0.54414925236636336</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>32416</v>
+        <v>32387</v>
       </c>
       <c r="B190">
         <v>119.5</v>
@@ -3121,9 +3121,9 @@
         <v>0.54596874043412513</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>32447</v>
+        <v>32417</v>
       </c>
       <c r="B191">
         <v>119.9</v>
@@ -3132,9 +3132,9 @@
         <v>0.55254729371644506</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>32477</v>
+        <v>32448</v>
       </c>
       <c r="B192">
         <v>120.3</v>
@@ -3143,9 +3143,9 @@
         <v>0.56438333028388055</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>32508</v>
+        <v>32478</v>
       </c>
       <c r="B193">
         <v>120.7</v>
@@ -3154,9 +3154,9 @@
         <v>0.57096093624348387</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>32539</v>
+        <v>32509</v>
       </c>
       <c r="B194">
         <v>121.2</v>
@@ -3165,9 +3165,9 @@
         <v>0.57122927408636304</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>32567</v>
+        <v>32540</v>
       </c>
       <c r="B195">
         <v>121.6</v>
@@ -3176,9 +3176,9 @@
         <v>0.57173216980821573</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>32598</v>
+        <v>32568</v>
       </c>
       <c r="B196">
         <v>122.2</v>
@@ -3187,9 +3187,9 @@
         <v>0.57250477868145866</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>32628</v>
+        <v>32599</v>
       </c>
       <c r="B197">
         <v>123.1</v>
@@ -3198,9 +3198,9 @@
         <v>0.57538959157154734</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>32659</v>
+        <v>32629</v>
       </c>
       <c r="B198">
         <v>123.7</v>
@@ -3209,9 +3209,9 @@
         <v>0.57479275863350809</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>32689</v>
+        <v>32660</v>
       </c>
       <c r="B199">
         <v>124.1</v>
@@ -3220,9 +3220,9 @@
         <v>0.57067179244285238</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>32720</v>
+        <v>32690</v>
       </c>
       <c r="B200">
         <v>124.5</v>
@@ -3231,9 +3231,9 @@
         <v>0.56845161997297</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>32751</v>
+        <v>32721</v>
       </c>
       <c r="B201">
         <v>124.5</v>
@@ -3242,9 +3242,9 @@
         <v>0.56929900772783393</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>32781</v>
+        <v>32752</v>
       </c>
       <c r="B202">
         <v>124.8</v>
@@ -3253,9 +3253,9 @@
         <v>0.57018325360819089</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>32812</v>
+        <v>32782</v>
       </c>
       <c r="B203">
         <v>125.4</v>
@@ -3264,9 +3264,9 @@
         <v>0.57789349985022698</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>32842</v>
+        <v>32813</v>
       </c>
       <c r="B204">
         <v>125.9</v>
@@ -3275,9 +3275,9 @@
         <v>0.59065553850989672</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>32873</v>
+        <v>32843</v>
       </c>
       <c r="B205">
         <v>126.3</v>
@@ -3286,9 +3286,9 @@
         <v>0.59745125308659497</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>32904</v>
+        <v>32874</v>
       </c>
       <c r="B206">
         <v>127.5</v>
@@ -3297,9 +3297,9 @@
         <v>0.60092188486807996</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>32932</v>
+        <v>32905</v>
       </c>
       <c r="B207">
         <v>128</v>
@@ -3308,9 +3308,9 @@
         <v>0.60182333664022714</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>32963</v>
+        <v>32933</v>
       </c>
       <c r="B208">
         <v>128.6</v>
@@ -3319,9 +3319,9 @@
         <v>0.60248866234399001</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>32993</v>
+        <v>32964</v>
       </c>
       <c r="B209">
         <v>128.9</v>
@@ -3330,9 +3330,9 @@
         <v>0.60249974292097863</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>33024</v>
+        <v>32994</v>
       </c>
       <c r="B210">
         <v>129.1</v>
@@ -3341,9 +3341,9 @@
         <v>0.59988476264822865</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>33054</v>
+        <v>33025</v>
       </c>
       <c r="B211">
         <v>129.9</v>
@@ -3352,9 +3352,9 @@
         <v>0.59734299627982701</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>33085</v>
+        <v>33055</v>
       </c>
       <c r="B212">
         <v>130.5</v>
@@ -3363,9 +3363,9 @@
         <v>0.59584687876684805</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>33116</v>
+        <v>33086</v>
       </c>
       <c r="B213">
         <v>131.6</v>
@@ -3374,9 +3374,9 @@
         <v>0.6017650555580959</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>33146</v>
+        <v>33117</v>
       </c>
       <c r="B214">
         <v>132.5</v>
@@ -3385,9 +3385,9 @@
         <v>0.60536282935164498</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>33177</v>
+        <v>33147</v>
       </c>
       <c r="B215">
         <v>133.4</v>
@@ -3396,9 +3396,9 @@
         <v>0.61476070877209155</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>33207</v>
+        <v>33178</v>
       </c>
       <c r="B216">
         <v>133.69999999999999</v>
@@ -3407,9 +3407,9 @@
         <v>0.62724897139613323</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>33238</v>
+        <v>33208</v>
       </c>
       <c r="B217">
         <v>134.19999999999999</v>
@@ -3418,9 +3418,9 @@
         <v>0.63482152149026949</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>33269</v>
+        <v>33239</v>
       </c>
       <c r="B218">
         <v>134.69999999999999</v>
@@ -3429,9 +3429,9 @@
         <v>0.63485629719004211</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>33297</v>
+        <v>33270</v>
       </c>
       <c r="B219">
         <v>134.80000000000001</v>
@@ -3440,9 +3440,9 @@
         <v>0.63379520139923928</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>33328</v>
+        <v>33298</v>
       </c>
       <c r="B220">
         <v>134.80000000000001</v>
@@ -3451,9 +3451,9 @@
         <v>0.63153554964206737</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>33358</v>
+        <v>33329</v>
       </c>
       <c r="B221">
         <v>135.1</v>
@@ -3462,9 +3462,9 @@
         <v>0.63147955988071525</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>33389</v>
+        <v>33359</v>
       </c>
       <c r="B222">
         <v>135.6</v>
@@ -3473,9 +3473,9 @@
         <v>0.63008810081409616</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>33419</v>
+        <v>33390</v>
       </c>
       <c r="B223">
         <v>136</v>
@@ -3484,9 +3484,9 @@
         <v>0.62539374514285195</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>33450</v>
+        <v>33420</v>
       </c>
       <c r="B224">
         <v>136.19999999999999</v>
@@ -3495,9 +3495,9 @@
         <v>0.62187237462103218</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>33481</v>
+        <v>33451</v>
       </c>
       <c r="B225">
         <v>136.6</v>
@@ -3506,9 +3506,9 @@
         <v>0.62462846952306916</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>33511</v>
+        <v>33482</v>
       </c>
       <c r="B226">
         <v>137</v>
@@ -3517,9 +3517,9 @@
         <v>0.62592232166924799</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>33542</v>
+        <v>33512</v>
       </c>
       <c r="B227">
         <v>137.19999999999999</v>
@@ -3528,9 +3528,9 @@
         <v>0.63227263300997716</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>33572</v>
+        <v>33543</v>
       </c>
       <c r="B228">
         <v>137.80000000000001</v>
@@ -3539,9 +3539,9 @@
         <v>0.6464839809901809</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>33603</v>
+        <v>33573</v>
       </c>
       <c r="B229">
         <v>138.19999999999999</v>
@@ -3550,9 +3550,9 @@
         <v>0.653743176378206</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>33634</v>
+        <v>33604</v>
       </c>
       <c r="B230">
         <v>138.30000000000001</v>
@@ -3561,9 +3561,9 @@
         <v>0.65182350335102324</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>33663</v>
+        <v>33635</v>
       </c>
       <c r="B231">
         <v>138.6</v>
@@ -3572,9 +3572,9 @@
         <v>0.65166183170574599</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>33694</v>
+        <v>33664</v>
       </c>
       <c r="B232">
         <v>139.1</v>
@@ -3583,9 +3583,9 @@
         <v>0.65168097147783066</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>33724</v>
+        <v>33695</v>
       </c>
       <c r="B233">
         <v>139.4</v>
@@ -3594,9 +3594,9 @@
         <v>0.65157846519150053</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>33755</v>
+        <v>33725</v>
       </c>
       <c r="B234">
         <v>139.69999999999999</v>
@@ -3605,9 +3605,9 @@
         <v>0.64913943719564327</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>33785</v>
+        <v>33756</v>
       </c>
       <c r="B235">
         <v>140.1</v>
@@ -3616,9 +3616,9 @@
         <v>0.64424752716554079</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>33816</v>
+        <v>33786</v>
       </c>
       <c r="B236">
         <v>140.5</v>
@@ -3627,9 +3627,9 @@
         <v>0.64150564342331151</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>33847</v>
+        <v>33817</v>
       </c>
       <c r="B237">
         <v>140.80000000000001</v>
@@ -3638,9 +3638,9 @@
         <v>0.64383373725364679</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>33877</v>
+        <v>33848</v>
       </c>
       <c r="B238">
         <v>141.1</v>
@@ -3649,9 +3649,9 @@
         <v>0.64465430355861963</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>33908</v>
+        <v>33878</v>
       </c>
       <c r="B239">
         <v>141.69999999999999</v>
@@ -3660,9 +3660,9 @@
         <v>0.65301043802852599</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>33938</v>
+        <v>33909</v>
       </c>
       <c r="B240">
         <v>142.1</v>
@@ -3671,9 +3671,9 @@
         <v>0.66665728373515742</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>33969</v>
+        <v>33939</v>
       </c>
       <c r="B241">
         <v>142.30000000000001</v>
@@ -3682,9 +3682,9 @@
         <v>0.67313787263834102</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>34000</v>
+        <v>33970</v>
       </c>
       <c r="B242">
         <v>142.80000000000001</v>
@@ -3693,9 +3693,9 @@
         <v>0.67303251105224959</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>34028</v>
+        <v>34001</v>
       </c>
       <c r="B243">
         <v>143.1</v>
@@ -3704,9 +3704,9 @@
         <v>0.67281968338450393</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>34059</v>
+        <v>34029</v>
       </c>
       <c r="B244">
         <v>143.30000000000001</v>
@@ -3715,9 +3715,9 @@
         <v>0.6713578951313669</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>34089</v>
+        <v>34060</v>
       </c>
       <c r="B245">
         <v>143.80000000000001</v>
@@ -3726,9 +3726,9 @@
         <v>0.67214478690486212</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>34120</v>
+        <v>34090</v>
       </c>
       <c r="B246">
         <v>144.19999999999999</v>
@@ -3737,9 +3737,9 @@
         <v>0.67004944054124382</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>34150</v>
+        <v>34121</v>
       </c>
       <c r="B247">
         <v>144.30000000000001</v>
@@ -3748,9 +3748,9 @@
         <v>0.66356115753024658</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>34181</v>
+        <v>34151</v>
       </c>
       <c r="B248">
         <v>144.5</v>
@@ -3759,9 +3759,9 @@
         <v>0.65976914928589692</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>34212</v>
+        <v>34182</v>
       </c>
       <c r="B249">
         <v>144.80000000000001</v>
@@ -3770,9 +3770,9 @@
         <v>0.66212446842562533</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>34242</v>
+        <v>34213</v>
       </c>
       <c r="B250">
         <v>145</v>
@@ -3781,9 +3781,9 @@
         <v>0.66247253023387564</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>34273</v>
+        <v>34243</v>
       </c>
       <c r="B251">
         <v>145.6</v>
@@ -3792,9 +3792,9 @@
         <v>0.67098320237793496</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>34303</v>
+        <v>34274</v>
       </c>
       <c r="B252">
         <v>146</v>
@@ -3803,9 +3803,9 @@
         <v>0.68495400017827568</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>34334</v>
+        <v>34304</v>
       </c>
       <c r="B253">
         <v>146.30000000000001</v>
@@ -3814,9 +3814,9 @@
         <v>0.69205952752627753</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>34365</v>
+        <v>34335</v>
       </c>
       <c r="B254">
         <v>146.30000000000001</v>
@@ -3825,9 +3825,9 @@
         <v>0.68952840593098119</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>34393</v>
+        <v>34366</v>
       </c>
       <c r="B255">
         <v>146.69999999999999</v>
@@ -3836,9 +3836,9 @@
         <v>0.68974596472751026</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>34424</v>
+        <v>34394</v>
       </c>
       <c r="B256">
         <v>147.1</v>
@@ -3847,9 +3847,9 @@
         <v>0.68916082605599482</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>34454</v>
+        <v>34425</v>
       </c>
       <c r="B257">
         <v>147.19999999999999</v>
@@ -3858,9 +3858,9 @@
         <v>0.68803694459245957</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>34485</v>
+        <v>34455</v>
       </c>
       <c r="B258">
         <v>147.5</v>
@@ -3869,9 +3869,9 @@
         <v>0.68538344299468423</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>34515</v>
+        <v>34486</v>
       </c>
       <c r="B259">
         <v>147.9</v>
@@ -3880,9 +3880,9 @@
         <v>0.68011569784285142</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>34546</v>
+        <v>34516</v>
       </c>
       <c r="B260">
         <v>148.4</v>
@@ -3891,9 +3891,9 @@
         <v>0.67757606750191768</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>34577</v>
+        <v>34547</v>
       </c>
       <c r="B261">
         <v>149</v>
@@ -3902,9 +3902,9 @@
         <v>0.68132973615620285</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>34607</v>
+        <v>34578</v>
       </c>
       <c r="B262">
         <v>149.30000000000001</v>
@@ -3913,9 +3913,9 @@
         <v>0.68211826733736303</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>34638</v>
+        <v>34608</v>
       </c>
       <c r="B263">
         <v>149.4</v>
@@ -3924,9 +3924,9 @@
         <v>0.68849512661582069</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>34668</v>
+        <v>34639</v>
       </c>
       <c r="B264">
         <v>149.80000000000001</v>
@@ -3935,9 +3935,9 @@
         <v>0.70278157004592956</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>34699</v>
+        <v>34669</v>
       </c>
       <c r="B265">
         <v>150.1</v>
@@ -3946,9 +3946,9 @@
         <v>0.71003509966981715</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>34730</v>
+        <v>34700</v>
       </c>
       <c r="B266">
         <v>150.5</v>
@@ -3957,9 +3957,9 @@
         <v>0.70932347978545907</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>34758</v>
+        <v>34731</v>
       </c>
       <c r="B267">
         <v>150.9</v>
@@ -3968,9 +3968,9 @@
         <v>0.70949329296101782</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>34789</v>
+        <v>34759</v>
       </c>
       <c r="B268">
         <v>151.19999999999999</v>
@@ -3979,9 +3979,9 @@
         <v>0.70836925152730401</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>34819</v>
+        <v>34790</v>
       </c>
       <c r="B269">
         <v>151.80000000000001</v>
@@ -3990,9 +3990,9 @@
         <v>0.70953809911097399</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>34850</v>
+        <v>34820</v>
       </c>
       <c r="B270">
         <v>152.1</v>
@@ -4001,9 +4001,9 @@
         <v>0.7067581130812981</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>34880</v>
+        <v>34851</v>
       </c>
       <c r="B271">
         <v>152.4</v>
@@ -4012,9 +4012,9 @@
         <v>0.70080887323360763</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>34911</v>
+        <v>34881</v>
       </c>
       <c r="B272">
         <v>152.6</v>
@@ -4023,9 +4023,9 @@
         <v>0.69675274865763237</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>34942</v>
+        <v>34912</v>
       </c>
       <c r="B273">
         <v>152.9</v>
@@ -4034,9 +4034,9 @@
         <v>0.69916319904888202</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>34972</v>
+        <v>34943</v>
       </c>
       <c r="B274">
         <v>153.1</v>
@@ -4045,9 +4045,9 @@
         <v>0.69947961640556111</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>35003</v>
+        <v>34973</v>
       </c>
       <c r="B275">
         <v>153.5</v>
@@ -4056,9 +4056,9 @@
         <v>0.70738957118827617</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>35033</v>
+        <v>35004</v>
       </c>
       <c r="B276">
         <v>153.69999999999999</v>
@@ -4067,9 +4067,9 @@
         <v>0.7210782864890477</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>35064</v>
+        <v>35034</v>
       </c>
       <c r="B277">
         <v>153.9</v>
@@ -4078,9 +4078,9 @@
         <v>0.72801067181335688</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>35095</v>
+        <v>35065</v>
       </c>
       <c r="B278">
         <v>154.69999999999999</v>
@@ -4089,9 +4089,9 @@
         <v>0.72911855363993694</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>35124</v>
+        <v>35096</v>
       </c>
       <c r="B279">
         <v>155</v>
@@ -4100,9 +4100,9 @@
         <v>0.72877044671277502</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>35155</v>
+        <v>35125</v>
       </c>
       <c r="B280">
         <v>155.5</v>
@@ -4111,9 +4111,9 @@
         <v>0.7285146733630673</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>35185</v>
+        <v>35156</v>
       </c>
       <c r="B281">
         <v>156.1</v>
@@ -4122,9 +4122,9 @@
         <v>0.72963700442175916</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>35216</v>
+        <v>35186</v>
       </c>
       <c r="B282">
         <v>156.4</v>
@@ -4133,9 +4133,9 @@
         <v>0.72673878294487193</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>35246</v>
+        <v>35217</v>
       </c>
       <c r="B283">
         <v>156.69999999999999</v>
@@ -4144,9 +4144,9 @@
         <v>0.72058235194033005</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>35277</v>
+        <v>35247</v>
       </c>
       <c r="B284">
         <v>157</v>
@@ -4155,9 +4155,9 @@
         <v>0.71684260510647624</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>35308</v>
+        <v>35278</v>
       </c>
       <c r="B285">
         <v>157.19999999999999</v>
@@ -4166,9 +4166,9 @@
         <v>0.71882573505875891</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>35338</v>
+        <v>35309</v>
       </c>
       <c r="B286">
         <v>157.69999999999999</v>
@@ -4177,9 +4177,9 @@
         <v>0.72049598633022194</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>35369</v>
+        <v>35339</v>
       </c>
       <c r="B287">
         <v>158.19999999999999</v>
@@ -4188,9 +4188,9 @@
         <v>0.72904905642987161</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>35399</v>
+        <v>35370</v>
       </c>
       <c r="B288">
         <v>158.69999999999999</v>
@@ -4199,9 +4199,9 @@
         <v>0.74453561526227641</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>35430</v>
+        <v>35400</v>
       </c>
       <c r="B289">
         <v>159.1</v>
@@ -4210,9 +4210,9 @@
         <v>0.75260882316767419</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>35461</v>
+        <v>35431</v>
       </c>
       <c r="B290">
         <v>159.4</v>
@@ -4221,9 +4221,9 @@
         <v>0.75127018390566236</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>35489</v>
+        <v>35462</v>
       </c>
       <c r="B291">
         <v>159.69999999999999</v>
@@ -4232,9 +4232,9 @@
         <v>0.75086864735503334</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>35520</v>
+        <v>35490</v>
       </c>
       <c r="B292">
         <v>159.80000000000001</v>
@@ -4243,9 +4243,9 @@
         <v>0.7486600951988307</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>35550</v>
+        <v>35521</v>
       </c>
       <c r="B293">
         <v>159.9</v>
@@ -4254,9 +4254,9 @@
         <v>0.74739882771966237</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>35581</v>
+        <v>35551</v>
       </c>
       <c r="B294">
         <v>159.9</v>
@@ -4265,9 +4265,9 @@
         <v>0.74300211888033907</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>35611</v>
+        <v>35582</v>
       </c>
       <c r="B295">
         <v>160.19999999999999</v>
@@ -4276,9 +4276,9 @@
         <v>0.73667704391091815</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>35642</v>
+        <v>35612</v>
       </c>
       <c r="B296">
         <v>160.4</v>
@@ -4287,9 +4287,9 @@
         <v>0.73236658508967389</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>35673</v>
+        <v>35643</v>
       </c>
       <c r="B297">
         <v>160.80000000000001</v>
@@ -4298,9 +4298,9 @@
         <v>0.73528739311353974</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>35703</v>
+        <v>35674</v>
       </c>
       <c r="B298">
         <v>161.19999999999999</v>
@@ -4309,9 +4309,9 @@
         <v>0.73648670257724647</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>35734</v>
+        <v>35704</v>
       </c>
       <c r="B299">
         <v>161.5</v>
@@ -4320,9 +4320,9 @@
         <v>0.74425678011014074</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>35764</v>
+        <v>35735</v>
       </c>
       <c r="B300">
         <v>161.69999999999999</v>
@@ -4331,9 +4331,9 @@
         <v>0.75861001252621352</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>35795</v>
+        <v>35765</v>
       </c>
       <c r="B301">
         <v>161.80000000000001</v>
@@ -4342,9 +4342,9 @@
         <v>0.7653809402170314</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>35826</v>
+        <v>35796</v>
       </c>
       <c r="B302">
         <v>162</v>
@@ -4353,9 +4353,9 @@
         <v>0.76352427724414862</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>35854</v>
+        <v>35827</v>
       </c>
       <c r="B303">
         <v>162</v>
@@ -4364,9 +4364,9 @@
         <v>0.76168266043528754</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>35885</v>
+        <v>35855</v>
       </c>
       <c r="B304">
         <v>162</v>
@@ -4375,9 +4375,9 @@
         <v>0.75896705520782581</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>35915</v>
+        <v>35886</v>
       </c>
       <c r="B305">
         <v>162.19999999999999</v>
@@ -4386,9 +4386,9 @@
         <v>0.75814940497891947</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>35946</v>
+        <v>35916</v>
       </c>
       <c r="B306">
         <v>162.6</v>
@@ -4397,9 +4397,9 @@
         <v>0.75554812088769929</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>35976</v>
+        <v>35947</v>
       </c>
       <c r="B307">
         <v>162.80000000000001</v>
@@ -4408,9 +4408,9 @@
         <v>0.7486331008033551</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>36007</v>
+        <v>35977</v>
       </c>
       <c r="B308">
         <v>163.19999999999999</v>
@@ -4419,9 +4419,9 @@
         <v>0.74515103919348358</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>36038</v>
+        <v>36008</v>
       </c>
       <c r="B309">
         <v>163.4</v>
@@ -4430,9 +4430,9 @@
         <v>0.74717636837532586</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>36068</v>
+        <v>36039</v>
       </c>
       <c r="B310">
         <v>163.5</v>
@@ -4441,9 +4441,9 @@
         <v>0.74699488753957699</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>36099</v>
+        <v>36069</v>
       </c>
       <c r="B311">
         <v>163.9</v>
@@ -4452,9 +4452,9 @@
         <v>0.75531694278670014</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>36129</v>
+        <v>36100</v>
       </c>
       <c r="B312">
         <v>164.1</v>
@@ -4463,9 +4463,9 @@
         <v>0.76986953033736327</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>36160</v>
+        <v>36130</v>
       </c>
       <c r="B313">
         <v>164.4</v>
@@ -4474,9 +4474,9 @@
         <v>0.77768001589419011</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>36191</v>
+        <v>36161</v>
       </c>
       <c r="B314">
         <v>164.7</v>
@@ -4485,9 +4485,9 @@
         <v>0.77624968186488441</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>36219</v>
+        <v>36192</v>
       </c>
       <c r="B315">
         <v>164.7</v>
@@ -4496,9 +4496,9 @@
         <v>0.77437737144254226</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>36250</v>
+        <v>36220</v>
       </c>
       <c r="B316">
         <v>164.8</v>
@@ -4507,9 +4507,9 @@
         <v>0.77208500431018334</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>36280</v>
+        <v>36251</v>
       </c>
       <c r="B317">
         <v>165.9</v>
@@ -4518,9 +4518,9 @@
         <v>0.77544381187424627</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>36311</v>
+        <v>36281</v>
       </c>
       <c r="B318">
         <v>166</v>
@@ -4529,9 +4529,9 @@
         <v>0.77134679008215312</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>36341</v>
+        <v>36312</v>
       </c>
       <c r="B319">
         <v>166</v>
@@ -4540,9 +4540,9 @@
         <v>0.76334824774789278</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>36372</v>
+        <v>36342</v>
       </c>
       <c r="B320">
         <v>166.7</v>
@@ -4551,9 +4551,9 @@
         <v>0.76113160682324577</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>36403</v>
+        <v>36373</v>
       </c>
       <c r="B321">
         <v>167.1</v>
@@ -4562,9 +4562,9 @@
         <v>0.76409529470940596</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>36433</v>
+        <v>36404</v>
       </c>
       <c r="B322">
         <v>167.8</v>
@@ -4573,9 +4573,9 @@
         <v>0.76664062464306437</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>36464</v>
+        <v>36434</v>
       </c>
       <c r="B323">
         <v>168.1</v>
@@ -4584,9 +4584,9 @@
         <v>0.77467222747067899</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>36494</v>
+        <v>36465</v>
       </c>
       <c r="B324">
         <v>168.4</v>
@@ -4595,9 +4595,9 @@
         <v>0.79004283308234002</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>36525</v>
+        <v>36495</v>
       </c>
       <c r="B325">
         <v>168.8</v>
@@ -4606,9 +4606,9 @@
         <v>0.7984938362709203</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>36556</v>
+        <v>36526</v>
       </c>
       <c r="B326">
         <v>169.3</v>
@@ -4617,9 +4617,9 @@
         <v>0.7979300008483603</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>36585</v>
+        <v>36557</v>
       </c>
       <c r="B327">
         <v>170</v>
@@ -4628,9 +4628,9 @@
         <v>0.79929661897530169</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>36616</v>
+        <v>36586</v>
       </c>
       <c r="B328">
         <v>171</v>
@@ -4639,9 +4639,9 @@
         <v>0.80113189160826048</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>36646</v>
+        <v>36617</v>
       </c>
       <c r="B329">
         <v>170.9</v>
@@ -4650,9 +4650,9 @@
         <v>0.79881463200306624</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>36677</v>
+        <v>36647</v>
       </c>
       <c r="B330">
         <v>171.2</v>
@@ -4661,9 +4661,9 @@
         <v>0.79550946061484695</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>36707</v>
+        <v>36678</v>
       </c>
       <c r="B331">
         <v>172.2</v>
@@ -4672,9 +4672,9 @@
         <v>0.79185884495293446</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>36738</v>
+        <v>36708</v>
       </c>
       <c r="B332">
         <v>172.7</v>
@@ -4683,9 +4683,9 @@
         <v>0.78852686561712382</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>36769</v>
+        <v>36739</v>
       </c>
       <c r="B333">
         <v>172.7</v>
@@ -4694,9 +4694,9 @@
         <v>0.78970231835017601</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>36799</v>
+        <v>36770</v>
       </c>
       <c r="B334">
         <v>173.6</v>
@@ -4705,9 +4705,9 @@
         <v>0.79313952585241931</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>36830</v>
+        <v>36800</v>
       </c>
       <c r="B335">
         <v>173.9</v>
@@ -4716,9 +4716,9 @@
         <v>0.80140095393903088</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>36860</v>
+        <v>36831</v>
       </c>
       <c r="B336">
         <v>174.2</v>
@@ -4727,9 +4727,9 @@
         <v>0.81725333445928505</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>36891</v>
+        <v>36861</v>
       </c>
       <c r="B337">
         <v>174.6</v>
@@ -4738,9 +4738,9 @@
         <v>0.82593023585842817</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>36922</v>
+        <v>36892</v>
       </c>
       <c r="B338">
         <v>175.6</v>
@@ -4749,9 +4749,9 @@
         <v>0.82762261163007711</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>36950</v>
+        <v>36923</v>
       </c>
       <c r="B339">
         <v>176</v>
@@ -4760,9 +4760,9 @@
         <v>0.82750708788031235</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>36981</v>
+        <v>36951</v>
       </c>
       <c r="B340">
         <v>176.1</v>
@@ -4771,9 +4771,9 @@
         <v>0.82502529890184018</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>37011</v>
+        <v>36982</v>
       </c>
       <c r="B341">
         <v>176.4</v>
@@ -4782,9 +4782,9 @@
         <v>0.82452253414476817</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>37042</v>
+        <v>37012</v>
       </c>
       <c r="B342">
         <v>177.3</v>
@@ -4793,9 +4793,9 @@
         <v>0.82385413181666112</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>37072</v>
+        <v>37043</v>
       </c>
       <c r="B343">
         <v>177.7</v>
@@ -4804,9 +4804,9 @@
         <v>0.81715050376385867</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>37103</v>
+        <v>37073</v>
       </c>
       <c r="B344">
         <v>177.4</v>
@@ -4815,9 +4815,9 @@
         <v>0.80998648500566173</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>37134</v>
+        <v>37104</v>
       </c>
       <c r="B345">
         <v>177.4</v>
@@ -4826,9 +4826,9 @@
         <v>0.81119392747725094</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>37164</v>
+        <v>37135</v>
       </c>
       <c r="B346">
         <v>178.1</v>
@@ -4837,9 +4837,9 @@
         <v>0.81369901817002233</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>37195</v>
+        <v>37165</v>
       </c>
       <c r="B347">
         <v>177.6</v>
@@ -4848,9 +4848,9 @@
         <v>0.81845203806539313</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>37225</v>
+        <v>37196</v>
       </c>
       <c r="B348">
         <v>177.5</v>
@@ -4859,9 +4859,9 @@
         <v>0.83273517144961606</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>37256</v>
+        <v>37226</v>
       </c>
       <c r="B349">
         <v>177.4</v>
@@ -4870,9 +4870,9 @@
         <v>0.83917539427998378</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>37287</v>
+        <v>37257</v>
       </c>
       <c r="B350">
         <v>177.7</v>
@@ -4881,9 +4881,9 @@
         <v>0.83752014855731605</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>37315</v>
+        <v>37288</v>
       </c>
       <c r="B351">
         <v>178</v>
@@ -4892,9 +4892,9 @@
         <v>0.83691057751531583</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>37346</v>
+        <v>37316</v>
       </c>
       <c r="B352">
         <v>178.5</v>
@@ -4903,9 +4903,9 @@
         <v>0.8362692552752895</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>37376</v>
+        <v>37347</v>
       </c>
       <c r="B353">
         <v>179.3</v>
@@ -4914,9 +4914,9 @@
         <v>0.83807760981948376</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>37407</v>
+        <v>37377</v>
       </c>
       <c r="B354">
         <v>179.5</v>
@@ -4925,9 +4925,9 @@
         <v>0.83407680011895469</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>37437</v>
+        <v>37408</v>
       </c>
       <c r="B355">
         <v>179.6</v>
@@ -4936,9 +4936,9 @@
         <v>0.82588762226217793</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>37468</v>
+        <v>37438</v>
       </c>
       <c r="B356">
         <v>180</v>
@@ -4947,9 +4947,9 @@
         <v>0.82185776381634223</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>37499</v>
+        <v>37469</v>
       </c>
       <c r="B357">
         <v>180.5</v>
@@ -4958,9 +4958,9 @@
         <v>0.82536924413553436</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>37529</v>
+        <v>37500</v>
       </c>
       <c r="B358">
         <v>180.8</v>
@@ -4969,9 +4969,9 @@
         <v>0.82603471356058422</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>37560</v>
+        <v>37530</v>
       </c>
       <c r="B359">
         <v>181.2</v>
@@ -4980,9 +4980,9 @@
         <v>0.83504228208023223</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>37590</v>
+        <v>37561</v>
       </c>
       <c r="B360">
         <v>181.5</v>
@@ -4991,9 +4991,9 @@
         <v>0.85150103446819891</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>37621</v>
+        <v>37591</v>
       </c>
       <c r="B361">
         <v>181.8</v>
@@ -5002,9 +5002,9 @@
         <v>0.85998921465671396</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>37652</v>
+        <v>37622</v>
       </c>
       <c r="B362">
         <v>182.6</v>
@@ -5013,9 +5013,9 @@
         <v>0.86061440138754031</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>37680</v>
+        <v>37653</v>
       </c>
       <c r="B363">
         <v>183.6</v>
@@ -5024,9 +5024,9 @@
         <v>0.86324034849332576</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>37711</v>
+        <v>37681</v>
       </c>
       <c r="B364">
         <v>183.9</v>
@@ -5035,9 +5035,9 @@
         <v>0.86156815711555035</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>37741</v>
+        <v>37712</v>
       </c>
       <c r="B365">
         <v>183.2</v>
@@ -5046,9 +5046,9 @@
         <v>0.85630684951996328</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>37772</v>
+        <v>37742</v>
       </c>
       <c r="B366">
         <v>182.9</v>
@@ -5057,9 +5057,9 @@
         <v>0.8498754693134084</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>37802</v>
+        <v>37773</v>
       </c>
       <c r="B367">
         <v>183.1</v>
@@ -5068,9 +5068,9 @@
         <v>0.84198231423276604</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>37833</v>
+        <v>37803</v>
       </c>
       <c r="B368">
         <v>183.7</v>
@@ -5079,9 +5079,9 @@
         <v>0.8387515067392336</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>37864</v>
+        <v>37834</v>
       </c>
       <c r="B369">
         <v>184.5</v>
@@ -5090,9 +5090,9 @@
         <v>0.84365997530751291</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>37894</v>
+        <v>37865</v>
       </c>
       <c r="B370">
         <v>185.1</v>
@@ -5101,9 +5101,9 @@
         <v>0.84568045066407149</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>37925</v>
+        <v>37895</v>
       </c>
       <c r="B371">
         <v>184.9</v>
@@ -5112,9 +5112,9 @@
         <v>0.85209336620659459</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>37955</v>
+        <v>37926</v>
       </c>
       <c r="B372">
         <v>185</v>
@@ -5123,9 +5123,9 @@
         <v>0.86792116460945901</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>37986</v>
+        <v>37956</v>
       </c>
       <c r="B373">
         <v>185.5</v>
@@ -5134,9 +5134,9 @@
         <v>0.87749174542805519</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>38017</v>
+        <v>37987</v>
       </c>
       <c r="B374">
         <v>186.3</v>
@@ -5145,9 +5145,9 @@
         <v>0.87805291883077097</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>38046</v>
+        <v>38018</v>
       </c>
       <c r="B375">
         <v>186.7</v>
@@ -5156,9 +5156,9 @@
         <v>0.87781575742758122</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>38077</v>
+        <v>38047</v>
       </c>
       <c r="B376">
         <v>187.1</v>
@@ -5167,9 +5167,9 @@
         <v>0.87656009894681608</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>38107</v>
+        <v>38078</v>
       </c>
       <c r="B377">
         <v>187.4</v>
@@ -5178,9 +5178,9 @@
         <v>0.87593833842817215</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>38138</v>
+        <v>38108</v>
       </c>
       <c r="B378">
         <v>188.2</v>
@@ -5189,9 +5189,9 @@
         <v>0.87450280658711566</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>38168</v>
+        <v>38139</v>
       </c>
       <c r="B379">
         <v>188.9</v>
@@ -5200,9 +5200,9 @@
         <v>0.86865351806974067</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>38199</v>
+        <v>38169</v>
       </c>
       <c r="B380">
         <v>189.1</v>
@@ -5211,9 +5211,9 @@
         <v>0.8634072396537239</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>38230</v>
+        <v>38200</v>
       </c>
       <c r="B381">
         <v>189.2</v>
@@ -5222,9 +5222,9 @@
         <v>0.86515158443458773</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>38260</v>
+        <v>38231</v>
       </c>
       <c r="B382">
         <v>189.8</v>
@@ -5233,9 +5233,9 @@
         <v>0.86715369819579036</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>38291</v>
+        <v>38261</v>
       </c>
       <c r="B383">
         <v>190.8</v>
@@ -5244,9 +5244,9 @@
         <v>0.87928293278646974</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>38321</v>
+        <v>38292</v>
       </c>
       <c r="B384">
         <v>191.7</v>
@@ -5255,9 +5255,9 @@
         <v>0.89935398516558529</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>38352</v>
+        <v>38322</v>
       </c>
       <c r="B385">
         <v>191.7</v>
@@ -5266,9 +5266,9 @@
         <v>0.90682031050435663</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>38383</v>
+        <v>38353</v>
       </c>
       <c r="B386">
         <v>191.6</v>
@@ -5277,9 +5277,9 @@
         <v>0.90303241678999302</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>38411</v>
+        <v>38384</v>
       </c>
       <c r="B387">
         <v>192.4</v>
@@ -5288,9 +5288,9 @@
         <v>0.9046157028873415</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>38442</v>
+        <v>38412</v>
       </c>
       <c r="B388">
         <v>193.1</v>
@@ -5299,9 +5299,9 @@
         <v>0.90466998988043923</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>38472</v>
+        <v>38443</v>
       </c>
       <c r="B389">
         <v>193.7</v>
@@ -5310,9 +5310,9 @@
         <v>0.90538557179048518</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>38503</v>
+        <v>38473</v>
       </c>
       <c r="B390">
         <v>193.6</v>
@@ -5321,9 +5321,9 @@
         <v>0.89959481060183633</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>38533</v>
+        <v>38504</v>
       </c>
       <c r="B391">
         <v>193.7</v>
@@ -5332,9 +5332,9 @@
         <v>0.89072623848654708</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>38564</v>
+        <v>38534</v>
       </c>
       <c r="B392">
         <v>194.9</v>
@@ -5343,9 +5343,9 @@
         <v>0.88988932315447278</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>38595</v>
+        <v>38565</v>
       </c>
       <c r="B393">
         <v>196.1</v>
@@ -5354,9 +5354,9 @@
         <v>0.89670309570625084</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>38625</v>
+        <v>38596</v>
       </c>
       <c r="B394">
         <v>198.8</v>
@@ -5365,9 +5365,9 @@
         <v>0.90827268283099638</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>38656</v>
+        <v>38626</v>
       </c>
       <c r="B395">
         <v>199.1</v>
@@ -5376,9 +5376,9 @@
         <v>0.91753266204290418</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>38686</v>
+        <v>38657</v>
       </c>
       <c r="B396">
         <v>198.1</v>
@@ -5387,9 +5387,9 @@
         <v>0.9293793659953179</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>38717</v>
+        <v>38687</v>
       </c>
       <c r="B397">
         <v>198.1</v>
@@ -5398,9 +5398,9 @@
         <v>0.93709495832505507</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>38748</v>
+        <v>38718</v>
       </c>
       <c r="B398">
         <v>199.3</v>
@@ -5409,9 +5409,9 @@
         <v>0.93932338552320271</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>38776</v>
+        <v>38749</v>
       </c>
       <c r="B399">
         <v>199.4</v>
@@ -5420,9 +5420,9 @@
         <v>0.93752791660985391</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>38807</v>
+        <v>38777</v>
       </c>
       <c r="B400">
         <v>199.7</v>
@@ -5431,9 +5431,9 @@
         <v>0.93559086990742468</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>38837</v>
+        <v>38808</v>
       </c>
       <c r="B401">
         <v>200.7</v>
@@ -5442,9 +5442,9 @@
         <v>0.93810471997083311</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>38868</v>
+        <v>38838</v>
       </c>
       <c r="B402">
         <v>201.3</v>
@@ -5453,9 +5453,9 @@
         <v>0.93537414965986398</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>38898</v>
+        <v>38869</v>
       </c>
       <c r="B403">
         <v>201.8</v>
@@ -5464,9 +5464,9 @@
         <v>0.92797395418990825</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>38929</v>
+        <v>38899</v>
       </c>
       <c r="B404">
         <v>202.9</v>
@@ -5475,9 +5475,9 @@
         <v>0.92641633487964359</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>38960</v>
+        <v>38930</v>
       </c>
       <c r="B405">
         <v>203.8</v>
@@ -5486,9 +5486,9 @@
         <v>0.93191275321230971</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>38990</v>
+        <v>38961</v>
       </c>
       <c r="B406">
         <v>202.8</v>
@@ -5497,9 +5497,9 @@
         <v>0.92654778711331021</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>39021</v>
+        <v>38991</v>
       </c>
       <c r="B407">
         <v>201.9</v>
@@ -5508,9 +5508,9 @@
         <v>0.93043618516555682</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>39051</v>
+        <v>39022</v>
       </c>
       <c r="B408">
         <v>202</v>
@@ -5519,9 +5519,9 @@
         <v>0.94767608243843626</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>39082</v>
+        <v>39052</v>
       </c>
       <c r="B409">
         <v>203.1</v>
@@ -5530,9 +5530,9 @@
         <v>0.96074702693497571</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>39113</v>
+        <v>39083</v>
       </c>
       <c r="B410">
         <v>203.43700000000001</v>
@@ -5541,9 +5541,9 @@
         <v>0.95882153326986341</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>39141</v>
+        <v>39114</v>
       </c>
       <c r="B411">
         <v>204.226</v>
@@ -5552,9 +5552,9 @@
         <v>0.96021853709911742</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>39172</v>
+        <v>39142</v>
       </c>
       <c r="B412">
         <v>205.28800000000001</v>
@@ -5563,9 +5563,9 @@
         <v>0.96177054833027253</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>39202</v>
+        <v>39173</v>
       </c>
       <c r="B413">
         <v>205.904</v>
@@ -5574,9 +5574,9 @@
         <v>0.96242906956090901</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>39233</v>
+        <v>39203</v>
       </c>
       <c r="B414">
         <v>206.755</v>
@@ -5585,9 +5585,9 @@
         <v>0.96072172038214187</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>39263</v>
+        <v>39234</v>
       </c>
       <c r="B415">
         <v>207.23400000000001</v>
@@ -5596,9 +5596,9 @@
         <v>0.95296211309510126</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>39294</v>
+        <v>39264</v>
       </c>
       <c r="B416">
         <v>207.60300000000001</v>
@@ -5607,9 +5607,9 @@
         <v>0.94788965189757834</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>39325</v>
+        <v>39295</v>
       </c>
       <c r="B417">
         <v>207.667</v>
@@ -5618,9 +5618,9 @@
         <v>0.94959531757282001</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>39355</v>
+        <v>39326</v>
       </c>
       <c r="B418">
         <v>208.547</v>
@@ -5629,9 +5629,9 @@
         <v>0.95280454319092456</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>39386</v>
+        <v>39356</v>
       </c>
       <c r="B419">
         <v>209.19</v>
@@ -5640,9 +5640,9 @@
         <v>0.96403142929560581</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>39416</v>
+        <v>39387</v>
       </c>
       <c r="B420">
         <v>210.834</v>
@@ -5651,9 +5651,9 @@
         <v>0.98912049091497667</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>39447</v>
+        <v>39417</v>
       </c>
       <c r="B421">
         <v>211.44499999999999</v>
@@ -5662,9 +5662,9 @@
         <v>1.0002223294449333</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>39478</v>
+        <v>39448</v>
       </c>
       <c r="B422">
         <v>212.17400000000001</v>
@@ -5673,9 +5673,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>39507</v>
+        <v>39479</v>
       </c>
       <c r="B423">
         <v>212.68700000000001</v>
@@ -5684,9 +5684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>39538</v>
+        <v>39508</v>
       </c>
       <c r="B424">
         <v>213.44800000000001</v>
@@ -5695,9 +5695,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>39568</v>
+        <v>39539</v>
       </c>
       <c r="B425">
         <v>213.94200000000001</v>
@@ -5706,9 +5706,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>39599</v>
+        <v>39569</v>
       </c>
       <c r="B426">
         <v>215.208</v>
@@ -5717,9 +5717,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>39629</v>
+        <v>39600</v>
       </c>
       <c r="B427">
         <v>217.46299999999999</v>
@@ -5728,9 +5728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>39660</v>
+        <v>39630</v>
       </c>
       <c r="B428">
         <v>219.01599999999999</v>
@@ -5739,9 +5739,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>39691</v>
+        <v>39661</v>
       </c>
       <c r="B429">
         <v>218.69</v>
@@ -5750,9 +5750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>39721</v>
+        <v>39692</v>
       </c>
       <c r="B430">
         <v>218.87700000000001</v>
@@ -5761,9 +5761,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>39752</v>
+        <v>39722</v>
       </c>
       <c r="B431">
         <v>216.995</v>
@@ -5772,9 +5772,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>39782</v>
+        <v>39753</v>
       </c>
       <c r="B432">
         <v>213.15299999999999</v>
@@ -5783,15 +5783,686 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>39813</v>
+        <v>39783</v>
       </c>
       <c r="B433">
         <v>211.398</v>
       </c>
       <c r="C433" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B434">
+        <v>211.93299999999999</v>
+      </c>
+      <c r="C434" s="2">
+        <v>0.99886413980977873</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B435">
+        <v>212.70500000000001</v>
+      </c>
+      <c r="C435" s="2">
+        <v>1.0000846314067151</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B436">
+        <v>212.495</v>
+      </c>
+      <c r="C436" s="2">
+        <v>0.99553521232337616</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B437">
+        <v>212.709</v>
+      </c>
+      <c r="C437" s="2">
+        <v>0.99423675575623294</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B438">
+        <v>213.02199999999999</v>
+      </c>
+      <c r="C438" s="2">
+        <v>0.98984238504144828</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B439">
+        <v>214.79</v>
+      </c>
+      <c r="C439" s="2">
+        <v>0.98770825381789085</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B440">
+        <v>214.726</v>
+      </c>
+      <c r="C440" s="2">
+        <v>0.98041238996237723</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B441">
+        <v>215.44499999999999</v>
+      </c>
+      <c r="C441" s="2">
+        <v>0.98516164433673237</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B442">
+        <v>215.86099999999999</v>
+      </c>
+      <c r="C442" s="2">
+        <v>0.98622057137113528</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B443">
+        <v>216.50899999999999</v>
+      </c>
+      <c r="C443" s="2">
+        <v>0.99776031705799662</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B444">
+        <v>217.23400000000001</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1.0191458717447093</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B445">
+        <v>217.34700000000001</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1.0281412312320837</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B446">
+        <v>217.488</v>
+      </c>
+      <c r="C446" s="2">
+        <v>1.0250454815387371</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>40210</v>
+      </c>
+      <c r="B447">
+        <v>217.28100000000001</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1.0215998156916031</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B448">
+        <v>217.35300000000001</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1.0182948540159664</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B449">
+        <v>217.40299999999999</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1.0161772816931691</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B450">
+        <v>217.29</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1.0096743615478978</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B451">
+        <v>217.19900000000001</v>
+      </c>
+      <c r="C451" s="2">
+        <v>0.99878600037707577</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B452">
+        <v>217.60499999999999</v>
+      </c>
+      <c r="C452" s="2">
+        <v>0.99355754830697296</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B453">
+        <v>217.923</v>
+      </c>
+      <c r="C453" s="2">
+        <v>0.99649275229777312</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B454">
+        <v>218.27500000000001</v>
+      </c>
+      <c r="C454" s="2">
+        <v>0.99724959680551173</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B455">
+        <v>219.035</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1.0094011382750754</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>40483</v>
+      </c>
+      <c r="B456">
+        <v>219.59</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1.0301989650626546</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B457">
+        <v>220.47200000000001</v>
+      </c>
+      <c r="C457" s="2">
+        <v>1.042923774113284</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B458">
+        <v>221.18700000000001</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1.0424792858691452</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B459">
+        <v>221.898</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1.0433077715140087</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B460">
+        <v>223.04599999999999</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1.0449664555301525</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B461">
+        <v>224.09299999999999</v>
+      </c>
+      <c r="C461" s="2">
+        <v>1.0474474390255302</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B462">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1.0445987138024608</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B463">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1.0337666637542939</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B464">
+        <v>225.39500000000001</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1.029125725974358</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B465">
+        <v>226.10599999999999</v>
+      </c>
+      <c r="C465" s="2">
+        <v>1.0339110155928484</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B466">
+        <v>226.59700000000001</v>
+      </c>
+      <c r="C466" s="2">
+        <v>1.0352709512648657</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B467">
+        <v>226.75</v>
+      </c>
+      <c r="C467" s="2">
+        <v>1.0449549528790987</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B468">
+        <v>227.16900000000001</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1.0657555840171145</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B469">
+        <v>227.22300000000001</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1.0748587971503989</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B470">
+        <v>227.84200000000001</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1.0738450517028477</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B471">
+        <v>228.32900000000001</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1.0735446924353627</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B472">
+        <v>228.80699999999999</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1.0719566358082531</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B473">
+        <v>229.18700000000001</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1.0712576305727721</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B474">
+        <v>228.71299999999999</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1.0627532433738522</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B475">
+        <v>228.524</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1.0508638251104785</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B476">
+        <v>228.59</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1.0437137012820981</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B477">
+        <v>229.91800000000001</v>
+      </c>
+      <c r="C477" s="2">
+        <v>1.0513420823997439</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B478">
+        <v>231.01499999999999</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1.0554558039446811</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B479">
+        <v>231.63800000000001</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1.0674808175303578</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B480">
+        <v>231.249</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1.084896764296069</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B481">
+        <v>231.221</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1.0937709912108913</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B482">
+        <v>231.679</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1.0919292656027599</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B483">
+        <v>232.93700000000001</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1.0952103325544109</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B484">
+        <v>232.28200000000001</v>
+      </c>
+      <c r="C484" s="2">
+        <v>1.0882369476406433</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B485">
+        <v>231.797</v>
+      </c>
+      <c r="C485" s="2">
+        <v>1.0834571986800161</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B486">
+        <v>231.893</v>
+      </c>
+      <c r="C486" s="2">
+        <v>1.0775296457380767</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B487">
+        <v>232.44499999999999</v>
+      </c>
+      <c r="C487" s="2">
+        <v>1.0688944786009573</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B488">
+        <v>232.9</v>
+      </c>
+      <c r="C488" s="2">
+        <v>1.0633926288490338</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B489">
+        <v>233.45599999999999</v>
+      </c>
+      <c r="C489" s="2">
+        <v>1.067520234121359</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B490">
+        <v>233.54400000000001</v>
+      </c>
+      <c r="C490" s="2">
+        <v>1.0670102386271743</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B491">
+        <v>233.66900000000001</v>
+      </c>
+      <c r="C491" s="2">
+        <v>1.0768404801953961</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B492">
+        <v>234.1</v>
+      </c>
+      <c r="C492" s="2">
+        <v>1.098272133162564</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B493">
+        <v>234.71899999999999</v>
+      </c>
+      <c r="C493" s="2">
+        <v>1.1103179784103918</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B494">
+        <v>235.28800000000001</v>
+      </c>
+      <c r="C494" s="2">
+        <v>1.1089388897791435</v>
       </c>
     </row>
   </sheetData>
